--- a/DateBase/orders/Dang Nguyen_2024-10-29.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-10-29.xlsx
@@ -666,6 +666,9 @@
       <c r="G2" t="str">
         <v>02055210510811115201040812510</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
